--- a/Data/AverageAlmond Pollination Fee.xlsx
+++ b/Data/AverageAlmond Pollination Fee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\Workspace\572Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\Workspace\572Lab1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A3A47-B0C4-42A7-BC8A-9C95EFF7D5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3974A0F8-29A0-4497-A062-C03EF4BFFAC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FF28BD2-E749-40E7-BAC2-4F1A549FD22B}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Fee/Hive</t>
+    <t>California</t>
+  </si>
+  <si>
+    <t>PNW</t>
   </si>
 </sst>
 </file>
@@ -106,35 +109,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Almond</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Pollination Fee</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -179,7 +153,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fee/Hive</c:v>
+                  <c:v>California</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -325,7 +299,166 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-773E-4BD4-8F7B-278E564B4015}"/>
+              <c16:uniqueId val="{00000000-7FEE-434A-98A5-A232C675808A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PNW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>57.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FEE-434A-98A5-A232C675808A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -337,11 +470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1404508527"/>
-        <c:axId val="1405257903"/>
+        <c:axId val="839973664"/>
+        <c:axId val="710918496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1404508527"/>
+        <c:axId val="839973664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,12 +531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1405257903"/>
+        <c:crossAx val="710918496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1405257903"/>
+        <c:axId val="710918496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1404508527"/>
+        <c:crossAx val="839973664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -472,6 +605,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1069,23 +1233,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDBE971-FC52-4004-A5AB-241C7775BB12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95E2164-4DB3-40DF-987F-842A6A51A688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,148 +1567,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1671E732-50E0-4E91-B54A-D696A2F00312}">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1995</v>
       </c>
       <c r="C2">
         <v>35.409999999999997</v>
       </c>
+      <c r="D2">
+        <v>57.61</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1996</v>
       </c>
       <c r="C3">
         <v>36.71</v>
       </c>
+      <c r="D3">
+        <v>57.32</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1997</v>
       </c>
       <c r="C4">
         <v>38.590000000000003</v>
       </c>
+      <c r="D4">
+        <v>56.1</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1998</v>
       </c>
       <c r="C5">
         <v>40.36</v>
       </c>
+      <c r="D5">
+        <v>58.39</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1999</v>
       </c>
       <c r="C6">
         <v>41.43</v>
       </c>
+      <c r="D6">
+        <v>63.22</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2000</v>
       </c>
       <c r="C7">
         <v>42.37</v>
       </c>
+      <c r="D7">
+        <v>45.74</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2001</v>
       </c>
       <c r="C8">
         <v>45.01</v>
       </c>
+      <c r="D8">
+        <v>60.17</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2002</v>
       </c>
       <c r="C9">
         <v>45.94</v>
       </c>
+      <c r="D9">
+        <v>66.37</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2003</v>
       </c>
       <c r="C10">
         <v>51.99</v>
       </c>
+      <c r="D10">
+        <v>66.38</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2004</v>
       </c>
       <c r="C11">
         <v>53.67</v>
       </c>
+      <c r="D11">
+        <v>65.94</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2005</v>
       </c>
       <c r="C12">
         <v>72.58</v>
       </c>
+      <c r="D12">
+        <v>101.55</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2006</v>
       </c>
       <c r="C13">
         <v>138.97999999999999</v>
       </c>
+      <c r="D13">
+        <v>156.61000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2007</v>
       </c>
       <c r="C14">
         <v>143.35</v>
       </c>
+      <c r="D14">
+        <v>156.04</v>
+      </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2008</v>
       </c>
       <c r="C15">
         <v>148.5</v>
       </c>
+      <c r="D15">
+        <v>148.15</v>
+      </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2009</v>
       </c>
       <c r="C16">
         <v>157.03</v>
       </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2010</v>
       </c>
       <c r="C17">
         <v>150.79</v>
+      </c>
+      <c r="D17">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
